--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_36.qasm_rb2_archsize6_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_36.qasm_rb2_archsize6_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1281"/>
+  <dimension ref="A1:N1282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.688042879104614</v>
+        <v>0.002055883407592773</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02205204963684082</v>
+        <v>0.0008401870727539062</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05695700645446777</v>
+        <v>0.05746984481811523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(5, 0), (4, 0), (3, 1), (4, 2), (3, 2), (5, 3), (4, 1), (4, 4), (4, 5), (2, 4), (3, 4), (0, 5), (1, 5), (2, 3), (1, 3), (3, 3), (2, 2), (2, 0), (1, 4), (0, 4), (2, 5), (3, 5), (4, 3), (3, 0), (5, 1), (5, 2), (5, 4), (5, 5), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[5, 0], [4, 0], [3, 1], [4, 2], [3, 2], [5, 3], [4, 1], [4, 4], [4, 5], [2, 4], [3, 4], [0, 5], [1, 5], [2, 3], [1, 3], [3, 3], [2, 2], [2, 0], [1, 4], [0, 4], [2, 5], [3, 5], [4, 3], [3, 0], [5, 1], [5, 2], [5, 4], [5, 5], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[(5, 0), (4, 0), (3, 4), (4, 2), (4, 3), (5, 3), (4, 1), (4, 4), (4, 5), (2, 4), (1, 5), (0, 5), (0, 4), (2, 3), (1, 4), (3, 3), (2, 5), (0, 0), (3, 5), (5, 4), (5, 5), (5, 1), (5, 2), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[5, 0], [4, 0], [3, 4], [4, 2], [4, 3], [5, 3], [4, 1], [4, 4], [4, 5], [2, 4], [1, 5], [0, 5], [0, 4], [2, 3], [1, 4], [3, 3], [2, 5], [0, 0], [3, 5], [5, 4], [5, 5], [5, 1], [5, 2], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>[(5, 0), (4, 0), (3, 4), (4, 2), (4, 3), (5, 3), (4, 1), (4, 4), (4, 5), (2, 5), (3, 2), (3, 5), (3, 3), (3, 0), (5, 4), (3, 1), (5, 5), (5, 1), (5, 2), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4)]</t>
+          <t>[[5, 0], [4, 0], [3, 4], [4, 2], [4, 3], [5, 3], [4, 1], [4, 4], [4, 5], [2, 5], [3, 2], [3, 5], [3, 3], [3, 0], [5, 4], [3, 1], [5, 5], [5, 1], [5, 2], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4]]</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>[(5, 0), (4, 0), (3, 1), (4, 2), (4, 3), (5, 3), (4, 1), (4, 4), (4, 5), (3, 2), (3, 0), (5, 5), (5, 1), (5, 2), (5, 4), (3, 3), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5)]</t>
+          <t>[[5, 0], [4, 0], [3, 1], [4, 2], [4, 3], [5, 3], [4, 1], [4, 4], [4, 5], [3, 2], [3, 0], [5, 5], [5, 1], [5, 2], [5, 4], [3, 3], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5]]</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>[(5, 0), (4, 0), (3, 1), (4, 2), (4, 5), (5, 3), (5, 4), (5, 5), (5, 2), (3, 0), (5, 1), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3)]</t>
+          <t>[[5, 0], [4, 0], [3, 1], [4, 2], [4, 5], [5, 3], [5, 4], [5, 5], [5, 2], [3, 0], [5, 1], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3]]</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>[(5, 0), (5, 1), (5, 2), (5, 3), (4, 5), (5, 4), (5, 5), (4, 0), (3, 1), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0)]</t>
+          <t>[[5, 0], [5, 1], [5, 2], [5, 3], [4, 5], [5, 4], [5, 5], [4, 0], [3, 1], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>[(5, 4), (5, 5), (4, 5), (4, 0), (3, 1), (5, 0), (4, 1), (5, 3), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (5, 2), (5, 1), (3, 0)]</t>
+          <t>[[5, 4], [5, 5], [4, 5], [4, 0], [3, 1], [5, 0], [4, 1], [5, 3], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [5, 2], [5, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>[(5, 0), (4, 0), (3, 1), (4, 2), (3, 2), (5, 3), (5, 4), (4, 4), (4, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 4), (5, 5), (4, 3), (5, 2), (3, 3), (4, 1), (5, 1), (3, 0)]</t>
+          <t>[[5, 0], [4, 0], [3, 1], [4, 2], [3, 2], [5, 3], [5, 4], [4, 4], [4, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 4], [5, 5], [4, 3], [5, 2], [3, 3], [4, 1], [5, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -6493,7 +6493,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>[(5, 1), (3, 0), (3, 1), (5, 2), (4, 3), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (5, 4), (4, 2), (3, 2), (4, 1), (4, 0), (5, 0), (5, 3), (5, 5), (4, 5)]</t>
+          <t>[[5, 1], [3, 0], [3, 1], [5, 2], [4, 3], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [5, 4], [4, 2], [3, 2], [4, 1], [4, 0], [5, 0], [5, 3], [5, 5], [4, 5]]</t>
         </is>
       </c>
     </row>
@@ -7512,7 +7512,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0), (3, 1), (5, 0), (5, 1), (5, 2), (5, 3), (5, 4), (5, 5), (4, 5)]</t>
+          <t>[[4, 0], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1], [5, 0], [5, 1], [5, 2], [5, 3], [5, 4], [5, 5], [4, 5]]</t>
         </is>
       </c>
     </row>
@@ -8418,7 +8418,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>[(3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0), (3, 1), (4, 0), (4, 1), (5, 0), (5, 1), (5, 2), (5, 3), (5, 4), (5, 5), (4, 5)]</t>
+          <t>[[3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1], [4, 0], [4, 1], [5, 0], [5, 1], [5, 2], [5, 3], [5, 4], [5, 5], [4, 5]]</t>
         </is>
       </c>
     </row>
@@ -9237,7 +9237,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>[(3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (3, 2), (3, 1), (4, 3), (4, 2), (3, 0), (4, 0), (4, 1), (5, 0), (5, 1), (5, 2), (5, 3), (4, 4), (5, 4), (5, 5), (4, 5)]</t>
+          <t>[[3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [3, 2], [3, 1], [4, 3], [4, 2], [3, 0], [4, 0], [4, 1], [5, 0], [5, 1], [5, 2], [5, 3], [4, 4], [5, 4], [5, 5], [4, 5]]</t>
         </is>
       </c>
     </row>
@@ -9903,7 +9903,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>[(1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (3, 4), (2, 4), (3, 2), (3, 1), (4, 3), (4, 2), (3, 0), (4, 0), (4, 1), (5, 0), (5, 1), (5, 2), (5, 3), (4, 4), (5, 4), (5, 5), (4, 5)]</t>
+          <t>[[1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [3, 4], [2, 4], [3, 2], [3, 1], [4, 3], [4, 2], [3, 0], [4, 0], [4, 1], [5, 0], [5, 1], [5, 2], [5, 3], [4, 4], [5, 4], [5, 5], [4, 5]]</t>
         </is>
       </c>
     </row>
@@ -10543,7 +10543,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>[(2, 4), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (2, 3), (1, 5), (2, 2), (3, 2), (3, 0), (3, 4), (3, 5), (4, 2), (4, 3), (3, 1), (3, 3), (2, 0), (2, 5), (2, 1), (0, 5), (4, 0), (4, 1), (5, 0), (5, 1), (5, 2), (5, 3), (4, 4), (5, 4), (5, 5), (4, 5)]</t>
+          <t>[[2, 4], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [1, 5], [2, 2], [3, 2], [3, 0], [3, 4], [3, 5], [4, 2], [4, 3], [3, 1], [3, 3], [2, 0], [2, 5], [2, 1], [0, 5], [4, 0], [4, 1], [5, 0], [5, 1], [5, 2], [5, 3], [4, 4], [5, 4], [5, 5], [4, 5]]</t>
         </is>
       </c>
     </row>
@@ -11206,7 +11206,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 0), (0, 2), (0, 0), (1, 1), (0, 1), (1, 2), (2, 0), (2, 2), (1, 5), (0, 4), (2, 3), (2, 5), (3, 1), (3, 2), (4, 0), (3, 4), (3, 5), (4, 2), (4, 3), (3, 3), (4, 4), (4, 1), (4, 5), (5, 0), (0, 5), (2, 4), (1, 3), (3, 0), (1, 4), (0, 3), (5, 3), (5, 4), (5, 2), (5, 5), (5, 1)]</t>
+          <t>[[2, 1], [1, 0], [0, 2], [0, 0], [1, 1], [0, 1], [1, 2], [2, 0], [2, 2], [1, 5], [0, 4], [2, 3], [2, 5], [3, 1], [3, 2], [4, 0], [3, 4], [3, 5], [4, 2], [4, 3], [3, 3], [4, 4], [4, 1], [4, 5], [5, 0], [0, 5], [2, 4], [1, 3], [3, 0], [1, 4], [0, 3], [5, 3], [5, 4], [5, 2], [5, 5], [5, 1]]</t>
         </is>
       </c>
     </row>
@@ -11692,7 +11692,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 1), (0, 0), (0, 3), (1, 3), (0, 5), (2, 1), (2, 0), (2, 2), (2, 4), (2, 3), (2, 5), (3, 4), (3, 1), (3, 2), (4, 0), (3, 3), (3, 5), (4, 2), (4, 3), (4, 4), (4, 5), (4, 1), (5, 4), (5, 0), (5, 5), (5, 3), (3, 0), (5, 1), (5, 2), (1, 4), (1, 5), (0, 4), (1, 0), (1, 1), (1, 2)]</t>
+          <t>[[0, 2], [0, 1], [0, 0], [0, 3], [1, 3], [0, 5], [2, 1], [2, 0], [2, 2], [2, 4], [2, 3], [2, 5], [3, 4], [3, 1], [3, 2], [4, 0], [3, 3], [3, 5], [4, 2], [4, 3], [4, 4], [4, 5], [4, 1], [5, 4], [5, 0], [5, 5], [5, 3], [3, 0], [5, 1], [5, 2], [1, 4], [1, 5], [0, 4], [1, 0], [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -11887,110 +11887,120 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1277" t="n">
-        <v>191</v>
+        <v>0.9879185437134209</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1278" t="n">
-        <v>1060</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1279" t="n">
-        <v>16</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1280" t="n">
-        <v>2.899272203445435</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1281" t="n">
+        <v>0.2450888156890869</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1281" t="inlineStr">
+      <c r="B1282" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1281" t="inlineStr">
+      <c r="C1282" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1281" t="inlineStr">
+      <c r="D1282" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1281" t="inlineStr">
+      <c r="E1282" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1281" t="inlineStr">
+      <c r="F1282" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1281" t="inlineStr">
+      <c r="G1282" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1281" t="inlineStr">
+      <c r="H1282" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1281" t="inlineStr">
+      <c r="I1282" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1281" t="inlineStr">
+      <c r="J1282" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1281" t="inlineStr">
+      <c r="K1282" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1281" t="inlineStr">
+      <c r="L1282" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1281" t="inlineStr">
+      <c r="M1282" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1281" t="inlineStr">
+      <c r="N1282" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
